--- a/workaw/workaw_data.xlsx
+++ b/workaw/workaw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\workaw_chatbot\workaw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F50EDE71-2F1C-430B-AF49-1C85DE281840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC451A49-7651-447D-BBB4-CD4FBDB8F4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64D59F0A-8640-4EF3-95CC-009CBE3BA196}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64D59F0A-8640-4EF3-95CC-009CBE3BA196}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>context</t>
   </si>
@@ -92,101 +92,178 @@
     </r>
   </si>
   <si>
-    <t>องค์ประกอบและคุณสมบัติสำคัญของออบเจ็กต์
-ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
-วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
-ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
-พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
-  </si>
-  <si>
-    <t>การสืบทอด (Inheritance)
-ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
-วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
-ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
-พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
-  </si>
-  <si>
-    <t>การพ้องรูป (Polymorphism)
-ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
-วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
-ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
-พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
-  </si>
-  <si>
-    <t>ตัวอย่าง
-ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
-วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
-ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
-พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
-  </si>
-  <si>
-    <t>การซ่อนคุณสมบัติ (Data Encapsulation)
-ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
-วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
-ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
-พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
-  </si>
-  <si>
-    <t>การใช้งานได้หลายรูปแบบ (Polymorphism)
-ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
-วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
-ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
-พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
-  </si>
-  <si>
-    <t>โครงสร้างของโปรแกรมในภาษาเชิงวัตถุ
-โปรแกรมเชิงวัตถุ (OOP) แตกต่างจากโปรแกรมเชิงโครงสร้างที่เน้นการเขียนโค้ดรวมกันหรือแบ่งเป็นฟังก์ชันย่อยๆ เพราะ OOP มีการจัดระบบที่เป็นระเบียบและแยกหน้าที่ชัดเจนกว่า โดยใช้แนวคิดหลักดังนี้
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">บทบาทของคลาส </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+คลาสไม่ได้เป็นสิ่งที่จับต้องได้ในโปรแกรมที่กำลังทำงานอยู่ แต่เป็นต้นแบบที่ใช้ในการสร้างสิ่งที่เรียกว่า "อินสแตนซ์" (Instance) หรือ "ออบเจ็กต์" (Object) ขึ้นมาใช้งานจริง</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">โครงสร้างของโปรแกรมในภาษาเชิงวัตถุ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>โปรแกรมเชิงวัตถุ (OOP) แตกต่างจากโปรแกรมเชิงโครงสร้างที่เน้นการเขียนโค้ดรวมกันหรือแบ่งเป็นฟังก์ชันย่อยๆ เพราะ OOP มีการจัดระบบที่เป็นระเบียบและแยกหน้าที่ชัดเจนกว่า โดยใช้แนวคิดหลักดังนี้
 ออบเจ็กต์ (Object): หน่วยพื้นฐานของโปรแกรมที่มีทั้งข้อมูล (Data Members) และเมธอด (Methods) ของตนเอง ออบเจ็กต์จำนวนมากสามารถทำงานร่วมกันได้ในระบบขนาดใหญ่
 คลาส (Class): พิมพ์เขียวสำหรับสร้างออบเจ็กต์ เป็นตัวกำหนดโครงสร้างและพฤติกรรมของออบเจ็กต์
 การแบ่งโปรแกรม: ใช้แนวคิด Modular Programming โดยจัดกลุ่มคลาสที่เกี่ยวข้องไว้ใน โมดูล (Module), ยูนิต (Unit) หรือไลบรารี (Library) เพื่อความเป็นระเบียบและการนำกลับมาใช้ซ้ำ
 การสื่อสารระหว่างออบเจ็กต์: ผ่าน Message Passing หรือการเรียกเมธอดของออบเจ็กต์อื่น
 คลาสไลบรารี (Class Library): การรวบรวมคลาสที่มีหน้าที่ใกล้เคียงกัน เช่น .NET Framework และ MFC เพื่อช่วยให้นักพัฒนาสามารถสร้างซอฟต์แวร์ใหม่ได้รวดเร็วและมีประสิทธิภาพ</t>
-  </si>
-  <si>
-    <t>คุณลักษณะและพฤติกรรมของโปรแกรมในภาษาเชิงวัตถุ
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">คุณลักษณะและพฤติกรรมของโปรแกรมในภาษาเชิงวัตถุ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 ภาษาคอมพิวเตอร์เชิงวัตถุถูกออกแบบมาเพื่อรองรับการสร้างและจัดการออบเจ็กต์ โดยออบเจ็กต์แต่ละตัวมี คุณลักษณะ (Attribute) ซึ่งแทนด้วยตัวแปร และ พฤติกรรม (Behavior) ซึ่งแทนด้วยเมธอดหรือฟังก์ชัน ตัวอย่างเช่น ออบเจ็กต์ “รถ” อาจมีคุณลักษณะคือ ยี่ห้อ, สี, จำนวนผู้โดยสาร และพฤติกรรมคือ การขับเคลื่อน, การหยุด, การถอยหลัง
 คุณสมบัติหลักที่ทำให้ภาษาเชิงวัตถุแตกต่างและมีพลังในการพัฒนาซอฟต์แวร์ ได้แก่:
 การสืบทอด (Inheritance): ความสามารถในการสร้างคลาสใหม่จากคลาสเดิม โดยนำคุณลักษณะและพฤติกรรมมาใช้ซ้ำหรือต่อยอด ช่วยลดความซ้ำซ้อนและเพิ่มการนำกลับมาใช้ใหม่ (code reuse).
 การเก็บซ่อนข้อมูล (Encapsulation): การซ่อนรายละเอียดภายในของออบเจ็กต์ และเปิดเผยเฉพาะข้อมูลหรือเมธอดที่จำเป็นต่อการใช้งาน ช่วยป้องกันการแก้ไขข้อมูลโดยไม่ตั้งใจและทำให้ะบบมีความปลอดภัยมากขึ้น.
 การมีได้หลายรูปแบบ (Polymorphism): ความสามารถของออบเจ็กต์จากคลาสที่เกี่ยวข้องกันในการตอบสนองต่อคำสั่งเดียวกันแต่ทำงานแตกต่างกัน เช่น เมธอด draw() ที่ให้ผลต่างกันระหว่างวงกลมกับสี่เหลี่ยม.
 การทำให้เป็นนามธรรม (Abstraction): การมุ่งเน้นเฉพาะคุณสมบัติสำคัญของออบเจ็กต์ และปกปิดรายละเอียดที่ไม่จำเป็น เพื่อให้นักพัฒนามองเห็นภาพรวมของระบบได้ง่ายและชัดเจน.</t>
-  </si>
-  <si>
-    <t>ความหมายของคลาส (Class)
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>องค์ประกอบและคุณสมบัติสำคัญของออบเจ็กต์</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
+วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
+ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
+พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ความหมายของคลาส (Class)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 คลาสเปรียบเสมือน "พิมพ์เขียว" (Blueprint) หรือ "แม่แบบ" (Template) สำหรับการสร้างออบเจ็กต์ มันคือโครงสร้างที่กำหนดว่าออบเจ็กต์ที่จะถูกสร้างขึ้นมานั้น จะมีคุณสมบัติและพฤติกรรมอะไรบ้าง</t>
-  </si>
-  <si>
-    <t>โครงสร้างของคลาส
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>โครงสร้างของคลาส</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 ประกอบด้วย 2 ส่วนหลัก
 แอตทริบิวต์ (Attributes): คือข้อมูลหรือคุณสมบัติที่ใช้ในการอธิบายสถานะของออบเจ็กต์ มักเรียกว่า "Data Member" เช่น คลาส Car อาจมีแอตทริบิวต์เป็น color, model, speed
 เมธอด (Methods): คือพฤติกรรมหรือการกระทำที่ออบเจ็กต์สามารถทำได้ มักเรียกว่า "Function Member" เช่น คลาส Car อาจมีเมธอดเป็น startEngine(), accelerate(), brake()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">บทบาทของคลาส </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-คลาสไม่ได้เป็นสิ่งที่จับต้องได้ในโปรแกรมที่กำลังทำงานอยู่ แต่เป็นต้นแบบที่ใช้ในการสร้างสิ่งที่เรียกว่า "อินสแตนซ์" (Instance) หรือ "ออบเจ็กต์" (Object) ขึ้นมาใช้งานจริง</t>
-    </r>
-  </si>
-  <si>
-    <t>หลักการสำคัญของคลาส
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>หลักการสำคัญของคลาส</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 การสร้างออบเจ็กต์ (Object Instantiation):
 ออบเจ็กต์ถูกสร้างขึ้นจากคลาสด้วยคำสั่ง new โดยเมื่อถูกสร้าง ระบบจะทำการจองพื้นที่ในหน่วยความจำสำหรับแอตทริบิวต์ต่าง ๆ ของออบเจ็กต์นั้น
 วงจรชีวิตของออบเจ็กต์ (Object Lifecycle):
@@ -195,9 +272,29 @@
 ดีสตรัคเตอร์ (Destructor): เมธอดที่ถูกเรียกเมื่อออบเจ็กต์กำลังจะถูกทำลาย ทำหน้าที่คืนทรัพยากร เช่น หน่วยความจำหรือการปิดไฟล์ (ภาษา Java ใช้ Garbage Collection จัดการอัตโนมัติแทน)
 การเป็นชนิดข้อมูลใหม่ (New Data Type):
 คลาสเปรียบเสมือนชนิดข้อมูลที่ผู้พัฒนากำหนดขึ้นเอง ซึ่งรวมทั้งข้อมูลและพฤติกรรม ช่วยให้นักพัฒนาสามารถจัดการข้อมูลที่ซับซ้อนและมีโครงสร้างได้อย่างเป็นระบบ</t>
-  </si>
-  <si>
-    <t>ตัวอย่างการใช้ในชีวิตจริงของคลาส
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ตัวอย่างการใช้ในชีวิตจริงของคลาส</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 คลาส: รถยนต์ (Car)
 คุณสมบัติ: ยี่ห้อ, รุ่น, สี, จำนวนประตู
 พฤติกรรม: ขับเคลื่อน(), เบรก(), เติมน้ำมัน()
@@ -205,9 +302,30 @@
 car1 = Car("Toyota", "Red")
 car2 = Car("Honda", "Black")
 แต่ละออบเจ็กต์จะมีข้อมูลของตัวเอง แต่ใช้พฤติกรรมจากคลาสเดียวกัน</t>
-  </si>
-  <si>
-    <t>ตัวอย่างโค้ดของคลาส
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ตัวอย่างโค้ดของคลาส
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 class Car {
     String brand;
     String color;
@@ -228,9 +346,30 @@
         car2.drive(); // Honda is driving.
     }
 }</t>
-  </si>
-  <si>
-    <t>การห่อหุ้ม (Encapsulation / Information Hiding)
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">การห่อหุ้ม (Encapsulation / Information Hiding)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 คือหลักการของการรวบรวมแอตทริบิวต์และเมธอดที่เกี่ยวข้องไว้ในออบเจ็กต์เดียวกัน พร้อมทั้ง "ซ่อน" รายละเอียดการทำงานภายในและข้อมูลสำคัญไว้จากโลกภายนอก
 วัตถุประสงค์: เพื่อป้องกันข้อมูลไม่ให้ถูกแก้ไขโดยตรงจากภายนอก ซึ่งอาจทำให้เกิดข้อผิดพลาด และเพื่อลดความซับซ้อนในการใช้งาน โดยผู้ใช้จะทราบเพียงว่าจะต้องเรียกใช้เมธอดอะไร แต่ไม่จำเป็นต้องรู้ว่าเมธอดนั้นทำงานอย่างไร
 ตัวอย่างในชีวิตจริง
@@ -240,9 +379,29 @@
 ผู้ใช้กดปุ่มถอนเงิน → ระบบทำงานภายใน เช่น ตรวจสอบยอดเงิน
 เชื่อมต่อธนาคาร → จ่ายเงินสดออกมา
 ผู้ใช้ไม่จำเป็นต้องรู้กระบวนการภายในทั้งหมด</t>
-  </si>
-  <si>
-    <t>ตัวอย่างโค้ด 
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ตัวอย่างโค้ด </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 class BankAccount {
     private double balance; // ห้ามเข้าถึงตรง ๆ จากภายนอก
     public BankAccount(double balance) {
@@ -266,6 +425,1558 @@
         System.out.println("Balance: " + acc.getBalance());
     }
 }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">การสืบทอด (Inheritance)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
+วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
+ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
+พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">การพ้องรูป (Polymorphism)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
+วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
+ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
+พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ตัวอย่าง
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
+วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
+ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
+พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>การซ่อนคุณสมบัติ (Data Encapsulation)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
+วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
+ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
+พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>การใช้งานได้หลายรูปแบบ (Polymorphism)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทำความเข้าใจปัญหา (User Requirement &amp; Feasibility Study)  ศึกษาวตถุประสงค์ ขอบเขต และความเป็นไปได้ของโครงการ
+วิเคราะห์ปัญหาเชิงวัตถุ (Domain Problem Analysis) มองปัญหาในรูปแบบของออบเจ็กต์ ว่าประกอบด้วยอะไรบ้าง แต่ละส่วนมีข้อมูล (Data) และพฤติกรรม (Behavior) อะไร
+ออกแบบเป็นคลาส นำผลการวิเคราะห์มาสร้างเป็น "คลาส" (Class) ซึ่งเปรียบเสมือนพิมพ์เขียวของออบเจ็กต์
+พัฒนาโปรแกรม เขียนโปรแกรมโดยสร้าง "ออบเจ็กต์" (Object) จากคลาสที่ออกแบบไว้ และกำหนดความสัมพันธ์ระหว่างออบเจ็กต์เหล่านั้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ภาษาคอมพิวเตอร์คืออะไร และมีความสำคัญต่อการพัฒนาโปรแกรมอย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ภาษาคอมพิวเตอร์ (Programming Language) คือภาษาที่มนุษย์ใช้เขียนคำสั่งให้คอมพิวเตอร์เข้าใจและทำงานตามที่ต้องการ เป็นเครื่องมือสำคัญในการพัฒนาโปรแกรมหรือซอฟต์แวร์ โดยแต่ละภาษาออกแบบมาเพื่อวัตถุประสงค์เฉพาะ เช่น
+ภาษา C ใช้พัฒนาโปรแกรมระบบ (System Software)
+ภาษา Python เหมาะกับงานข้อมูลและ AI
+ภาษา Java ใช้กับระบบขนาดใหญ่และแอปมือถือ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ระดับของภาษา
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ภาษาเครื่อง (Machine Language) – เขียนด้วยเลขฐานสอง เช่น 10100100 เข้าใจยากแต่เร็วมาก
+ภาษาแอสเซมบลี (Assembly Language) – ใช้คำย่อแทนรหัส เช่น MOV A, B
+ภาษาระดับสูง (High-Level Language) – เขียนใกล้เคียงภาษามนุษย์ เช่น Java, Python, C++</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตัวอย่างโค้ดพื้นฐาน
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>public class HelloWorld {
+   public static void main(String[] args){
+      System.out.println("Hello Object-Oriented Programming!");
+   }
+}
+public class HelloWorld → ประกาศคลาส (Class) ซึ่งเป็นแม่แบบของโปรแกรม
+public static void main → จุดเริ่มต้นของโปรแกรมทุก Java
+System.out.println() → เมธอด (Method) สำหรับแสดงข้อความทางหน้าจอ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ภาษาคอมพิวเตอร์มีวิวัฒนาการอย่างไร?
+วิวัฒนาการของภาษาโปรแกรมมี 4 ขั้นสำคัญ ได้แก่
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">โปรแกรมแบบไม่มีโครงสร้าง (Unstructured Programming)
+ลักษณะ : เขียนโปรแกรมแบบต่อเนื่องตามลำดับคำสั่ง ไม่มีการแบ่งส่วนย่อย ทำให้ซับซ้อนเมื่อโปรแกรมใหญ่ขึ้น
+ตัวอย่าง :
+10 INPUT A, B
+20 PRINT A + B
+ข้อเสีย: อ่านยาก แก้ไขลำบาก
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>โปรแกรมแบบมีโครงสร้าง (Procedural Programming)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ลักษณะ: แบ่งโปรแกรมเป็น “ฟังก์ชัน (Function)” เพื่อแก้ปัญหาเฉพาะส่วน
+ตัวอย่าง (C):
+int sum(int a, int b){
+    return a + b;
+}
+int main(){
+    printf("%d", sum(3, 4));
+}
+ข้อดี: แก้ไขง่ายกว่าเดิม แต่อาจซ้ำซ้อนเมื่อต้องใช้โค้ดร่วมกันหลายส่วน</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+โปรแกรมแบบโมดูล (Modular Programming)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ลักษณะ: รวมฟังก์ชันที่เกี่ยวข้องเป็น “โมดูล (Module)” เพื่อใช้งานซ้ำได้
+ตัวอย่าง: แยกไฟล์ math.c สำหรับเก็บฟังก์ชันทางคณิตศาสตร์
+ข้อดี: แยกส่วนการทำงานชัดเจน เพิ่มความสามารถในการบำรุงรักษา
+โปรแกรมเชิงวัตถุ (Object-Oriented Programming – OOP)
+ลักษณะ: รวม “ข้อมูล (Data)” และ “พฤติกรรม (Method)” เข้าด้วยกันในหน่วยเดียวเรียกว่า ออบเจ็กต์ (Object)
+ตัวอย่าง (Java):
+class Student {
+    String name;
+    int age;
+    void showInfo() {
+        System.out.println(name + " อายุ " + age + " ปี");
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Student s = new Student();
+        s.name = "มาย";
+        s.age = 20;
+        s.showInfo();
+    }
+}
+อธิบาย:
+Student = คลาส (Class)
+name, age = ตัวแปรภายในคลาส (Attribute)
+showInfo() = เมธอดของออบเจ็กต์
+new Student() = การสร้างออบเจ็กต์ (Instance)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">หลักการพัฒนาโปรแกรมมีขั้นตอนใดบ้าง?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>การวิเคราะห์ปัญหา (Analysis): ศึกษาปัญหาจริงและระบุความต้องการของผู้ใช้
+การออกแบบ (Design): วางแผนโครงสร้างโปรแกรม เช่น การใช้ Class Diagram หรือ Flowchart
+การเขียนโปรแกรม (Coding): แปลงแบบออกแบบเป็นโค้ดจริง
+การทดสอบ (Testing): ตรวจสอบความถูกต้องของโปรแกรม
+การบำรุงรักษา (Maintenance): ปรับปรุงโปรแกรมหลังการใช้งาน
+ตัวอย่าง: การพัฒนาโปรแกรมลงทะเบียนเรียน
+วิเคราะห์ → กำหนดข้อมูลนักเรียน/รายวิชา
+ออกแบบ → สร้างคลาส Student, Course
+เขียนโค้ด → ใช้ภาษา Java
+ทดสอบ → ป้อนข้อมูลจำลอง
+บำรุงรักษา → เพิ่มระบบตรวจสอบซ้ำรายวิชา</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แนวคิดของการใช้โค้ดซ้ำ (Reusability) คืออะไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>คือการออกแบบโปรแกรมให้สามารถนำบางส่วนกลับมาใช้ได้โดยไม่ต้องเขียนใหม่ เช่น คลาสหรือโมดูลเดิม
+ตัวอย่าง (Java):
+class MathTool {
+    int sum(int a, int b){ return a + b; }
+    int multiply(int a, int b){ return a * b; }
+}
+public class Main {
+    public static void main(String[] args){
+        MathTool mt = new MathTool();
+        System.out.println(mt.sum(5,3));
+    }
+}
+อธิบาย:
+คลาส MathTool สามารถนำไปใช้ในโปรแกรมอื่นได้โดยไม่ต้องแก้ไข</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การพัฒนาเชิงคอมโพเนนท์คืออะไร และต่างจาก OOP อย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เป็นการพัฒนาโปรแกรมโดยแบ่งระบบเป็น “คอมโพเนนท์ (Component)” ซึ่งเป็นหน่วยงานอิสระที่สามารถใช้งานร่วมกันได้ เช่น ระบบ Login, ระบบชำระเงิน, ระบบรายงาน</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ลักษณะสำคัญ:
+มีการกำหนดอินเทอร์เฟซเชื่อมต่อชัดเจน
+สามารถเปลี่ยนหรืออัปเกรดคอมโพเนนท์โดยไม่กระทบส่วนอื่น
+ใช้หลักการของ OOP แต่ขยายระดับไปยังระบบใหญ่
+ตัวอย่าง:
+คอมโพเนนท์ “EmailService” ใช้ส่งอีเมล
+คอมโพเนนท์ “PaymentModule” ใช้จัดการธุรกรรม</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADT คืออะไร มีคุณสมบัติอย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ADT คือแบบจำลองของชนิดข้อมูลที่กำหนดเฉพาะ “ข้อมูล” และ “การกระทำที่อนุญาตให้ทำกับข้อมูลนั้น” โดยไม่ระบุวิธีการจัดเก็บจริง ช่วยให้ซ่อนรายละเอียดภายในและเปลี่ยนโครงสร้างได้โดยไม่กระทบกับโค้ดส่วนอื่น
+ตัวอย่าง (Java):
+interface StackADT {
+    void push(int item);
+    int pop();
+    boolean isEmpty();
+}
+ใช้ interface แทน ADT กำหนดสัญญาว่าคลาสใดที่ implement ต้องมีเมธอดเหล่านี้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การใช้แนวคิด OOP ช่วยแก้ปัญหาได้อย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>OOP มองปัญหาเป็นกลุ่มของวัตถุ (Object) แต่ละวัตถุมีข้อมูลและพฤติกรรมของตัวเอง จึงลดความซับซ้อน แยกหน้าที่ชัด และใช้ซ้ำได้
+ตัวอย่าง: การออกแบบระบบห้องสมุด มี Class เช่น Book, Member, Loan ที่ทำงานสื่อสารกัน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">คุณสมบัติทั่วไปของออบเจ็กต์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ทุกออบเจ็กต์มี
+State – ค่าของแอตทริบิวต์
+Behavior – สิ่งที่ออบเจ็กต์ทำได้
+Identity – ตัวตนเฉพาะของออบเจ็กต์
+โค้ดตัวอย่าง:
+class Car {
+    String color = "Red";   // state
+    void drive() {          // behavior
+        System.out.println("Driving...");
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">กระบวนการทำงานเชิงวัตถุ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ระบุออบเจ็กต์ที่เกี่ยวข้องกับระบบ
+ออกแบบ Class แทนออบเจ็กต์
+กำหนดความสัมพันธ์ระหว่าง Class
+สร้างและเรียกใช้ออบเจ็กต์จริง</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การศึกษาความต้องการของผู้ใช้
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เป็นขั้นแรกของการวิเคราะห์ระบบ เพื่อให้เข้าใจเป้าหมายและข้อจำกัดของผู้ใช้ ก่อนออกแบบ Class หรือโครงสร้างข้อมูลใด ๆ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ตัวอย่างโค้ด: การซ่อนข้อมูลด้วย private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class BankAccount {
+    private double balance; // ซ่อนข้อมูลภายใน
+    // Setter - อนุญาตให้ฝากเงินได้เท่านั้น
+    public void deposit(double amount) {
+        if(amount &gt; 0)
+            balance += amount;
+    }
+    // Getter - ใช้ดูยอดเงินคงเหลือ
+    public double getBalance() {
+        return balance;
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        BankAccount acc = new BankAccount();
+        acc.deposit(1000);
+        System.out.println("ยอดเงินคงเหลือ: " + acc.getBalance());
+    }
+}
+อธิบาย:
+ตัวแปร balance ถูกซ่อน (private) ไม่ให้เข้าถึงจากภายนอกโดยตรง
+การเข้าถึงทำได้เฉพาะผ่านเมธอด deposit() และ getBalance()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Encapsulation คืออะไร ทำไมถึงสำคัญใน OOP?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encapsulation หมายถึง “การซ่อนรายละเอียดภายใน” ของคลาสไว้ เพื่อไม่ให้ผู้ใช้งานเข้าถึงข้อมูลโดยตรง
+และให้เข้าถึงได้ผ่าน “เมธอดควบคุม” (Getter/Setter) เท่านั้น
+เป็นแนวคิดที่ช่วยปกป้องข้อมูลจากการเปลี่ยนแปลงโดยไม่ตั้งใจ และทำให้โค้ดปลอดภัยขึ้น</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตัวอย่าง: Composition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class Engine {
+    void start(){ System.out.println("เครื่องยนต์เริ่มทำงาน"); }
+}
+class Car {
+    private Engine engine = new Engine(); // มี (Has-a)
+    void startCar(){
+        engine.start();
+        System.out.println("รถพร้อมใช้งาน");
+    }
+}
+public class Main {
+    public static void main(String[] args){
+        Car c = new Car();
+        c.startCar();
+    }
+}
+อธิบาย:
+Car มี Engine (Composition)
+เมื่อ Car หาย → Engine ภายในก็หายด้วย (ความสัมพันธ์แบบรวมแน่น – Strong Association)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ความสัมพันธ์ระหว่างออบเจ็กต์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ในระบบเชิงวัตถุ ออบเจ็กต์มักไม่ได้อยู่โดดเดี่ยว แต่จะมี “ความสัมพันธ์ (Relationships)” กัน เช่น
+ประเภทความสัมพันธ์	คำอธิบาย	ตัวอย่าง
+Association	ความสัมพันธ์ทั่วไประหว่างออบเจ็กต์	ครู–นักเรียน
+Aggregation	“มี” แต่ไม่ขึ้นต่อกัน (Has-a)	มหาวิทยาลัยมีนักศึกษา
+Composition	“มี” และพึ่งพากันโดยตรง	บ้านมีห้อง (ถ้าบ้านถูกทำลาย ห้องก็หายไป)
+Inheritance	ความสัมพันธ์แบบ “เป็นชนิดของ” (Is-a)	สุนัขเป็นสัตว์</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">คลาสลูกสามารถมีคุณสมบัติใหม่ที่คลาสแม่ไม่มีได้ไหม?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ได้ คลาสลูกสามารถเพิ่มแอตทริบิวต์หรือเมธอดเฉพาะของตนเองได้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตัวอย่าง Inheritance พื้นฐาน
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+// คลาสแม่
+class Animal {
+    void eat() {
+        System.out.println("สัตว์กินอาหาร");
+    }
+}
+// คลาสลูกสืบทอดจาก Animal
+class Dog extends Animal {
+    void bark() {
+        System.out.println("สุนัขเห่า: โฮ่ง โฮ่ง");
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Dog d = new Dog();
+        d.eat();   // ใช้เมธอดจากคลาสแม่
+        d.bark();  // เมธอดเฉพาะของคลาสลูก
+    }
+}
+อธิบาย:
+class Dog extends Animal → คำสั่ง extends หมายถึง “สืบทอด”
+เมธอด eat() ถูกเรียกใช้ได้จากคลาสลูก
+เพิ่มเมธอดเฉพาะ bark() สำหรับคลาสลูก</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Inheritance คืออะไร และช่วยให้โปรแกรมมีประสิทธิภาพขึ้นอย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Inheritance หมายถึง “การสืบทอดคุณสมบัติ” จากคลาสแม่ (Superclass หรือ Parent Class) มายังคลาสลูก (Subclass หรือ Child Class)
+ทำให้คลาสลูกสามารถใช้ตัวแปรและเมธอดของคลาสแม่ได้โดยไม่ต้องเขียนใหม่ทั้งหมด
+ช่วยลดความซ้ำซ้อนของโค้ด และส่งเสริมการใช้ซ้ำ (Code Reusability)
+ประโยชน์หลักของการสืบทอด:
+ลดความซ้ำซ้อน (Reduce Redundancy) – คลาสลูกไม่ต้องเขียนเมธอดที่มีอยู่แล้วในคลาสแม่
+ใช้ซ้ำได้ (Reusability) – สามารถนำคลาสแม่มาใช้สร้างคลาสลูกใหม่หลาย ๆ คลาส
+เพิ่มความยืดหยุ่น (Flexibility) – ขยายระบบได้โดยไม่กระทบโค้ดเดิม
+ส่งเสริม Polymorphism – ทำให้โค้ดสามารถเรียกใช้คลาสลูกผ่านชนิดข้อมูลของคลาสแม่ได้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interface คืออะไร และต่างจาก Abstract Class อย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Interface คือ “สัญญา (Contract)” ที่กำหนดว่าคลาสใดที่นำไปใช้ (implement) ต้องเขียนเมธอดที่อยู่ใน Interface ทั้งหมด
+คล้ายกับ Abstract Class แต่ต่างกันที่ Interface จะไม่มีตัวแปรหรือเมธอดที่มีเนื้อหาเลย (เวอร์ชันใหม่ของ Java อนุญาตให้มี default method ได้บ้าง)
+ตัวอย่างโค้ด (Java):
+interface Shape {
+    void draw();
+    double area();
+}
+// คลาส Circle นำ interface มาใช้
+class Circle implements Shape {
+    double radius;
+    Circle(double r){ radius = r; }
+    public void draw() {
+        System.out.println("วาดรูปวงกลม");
+    }
+    public double area() {
+        return Math.PI * radius * radius;
+    }
+}
+class Rectangle implements Shape {
+    double w, h;
+    Rectangle(double w, double h){ this.w = w; this.h = h; }
+    public void draw() {
+        System.out.println("วาดรูปสี่เหลี่ยมผืนผ้า");
+    }
+    public double area() {
+        return w * h;
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Shape s1 = new Circle(5);
+        Shape s2 = new Rectangle(4,6);
+        s1.draw();
+        System.out.println("พื้นที่: " + s1.area());
+        s2.draw();
+        System.out.println("พื้นที่: " + s2.area());
+    }
+}
+อธิบาย:
+interface Shape → กำหนดสัญญาว่าทุกคลาสที่ implement ต้องมีเมธอด draw() และ area()
+Circle และ Rectangle implement แล้วต้องเขียนเนื้อหาเมธอดเอง
+Interface ช่วยให้โค้ดมีความยืดหยุ่น สามารถสร้างออบเจ็กต์ต่างชนิดแต่เรียกผ่านชนิดเดียว (Shape) ได้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">final ในภาษา Java ใช้ทำอะไรได้บ้าง?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+final เป็นคีย์เวิร์ดที่ใช้ “ป้องกันการเปลี่ยนแปลง” ขององค์ประกอบบางส่วนของโปรแกรม เช่น
+final variable: ค่าคงที่ เปลี่ยนไม่ได้
+final method: ห้ามคลาสลูก Override เมธอดนั้น
+final class: ห้ามคลาสอื่นสืบทอดจากคลาสนั้น
+ตัวอย่างโค้ด (Java):
+// final variable
+class MathTool {
+    final double PI = 3.14159; // ค่าคงที่
+    final void showPi() {       // final method
+        System.out.println("ค่า PI คือ " + PI);
+    }
+}
+// final class
+final class Constants {
+    public static final int MAX_SCORE = 100;
+}
+อธิบาย:
+final double PI → กำหนดค่าได้ครั้งเดียวเท่านั้น
+final void showPi() → เมธอดนี้ห้ามถูก Override
+final class Constants → ไม่สามารถสร้างคลาสลูกได้อีก</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การ Override คืออะไร และต่างจาก Overload อย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Override คือการที่คลาสลูกเขียนเมธอดชื่อเดียวกับเมธอดของคลาสแม่ เพื่อเปลี่ยนพฤติกรรมใหม่ให้เหมาะสมกับคลาสลูก
+ต่างจาก Overload ที่เป็นการสร้างเมธอดชื่อเดียวกันแต่ต่างพารามิเตอร์
+คุณสมบัติสำคัญของ Override:
+ชื่อเมธอดเหมือนเดิม
+พารามิเตอร์เหมือนเดิม
+Return type เหมือนหรือเข้ากันได้
+ต้องเกิดในความสัมพันธ์แบบ Inheritance
+ตัวอย่างโค้ด (Java):
+class Vehicle {
+    void move() {
+        System.out.println("พาหนะกำลังเคลื่อนที่");
+    }
+}
+class Car extends Vehicle {
+    // ซ้อนทับเมธอด move()
+    @Override
+    void move() {
+        System.out.println("รถยนต์กำลังวิ่งบนถนน");
+    }
+}
+class Plane extends Vehicle {
+    @Override
+    void move() {
+        System.out.println("เครื่องบินกำลังบินบนท้องฟ้า");
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Vehicle v1 = new Car();
+        Vehicle v2 = new Plane();
+        v1.move();
+        v2.move();
+    }
+}
+อธิบาย:
+เมธอด move() ในแต่ละคลาสลูกมีพฤติกรรมต่างกัน → ตัวอย่างของ Polymorphism
+ใช้คำสั่ง @Override เพื่อป้องกันการเขียนผิดชื่อเมธอด
+การ Override ช่วยให้โปรแกรมขยายได้ง่าย เช่น เพิ่มคลาสใหม่ได้โดยไม่ต้องแก้โค้ดเก่า</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">แอ็บสแตร็กคลาส  และแอ็บสแตร็กเมธอด คืออะไร
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+แอ็บสแตร็กคลาสคือคลาสต้นแบบที่ถูกออกแบบมาเพื่อให้คลาสลูกนำไปสืบทอดต่อเท่านั้น ไม่สามารถสร้างออบเจ็กต์ได้โดยตรง
+ส่วนแอ็บสแตร็กเมธอด คือเมธอดที่ถูกประกาศไว้แต่ “ไม่มีเนื้อหา” (ไม่มี body) เพื่อบังคับให้คลาสลูกต้องเขียนเมธอดนี้เอง
+วัตถุประสงค์:
+ใช้สร้าง “แม่แบบพฤติกรรม” ของกลุ่มคลาสที่คล้ายกัน
+ช่วยกำหนดมาตรฐาน (Standard) ให้ทุกคลาสลูกต้องมีเมธอดบางตัวเหมือนกัน
+ช่วยให้โปรแกรมมีโครงสร้างชัดเจน ยืดหยุ่นต่อการขยาย
+ตัวอย่างโค้ด (Java):
+// คลาสต้นแบบ
+abstract class Animal {
+    String name;
+    // เมธอดธรรมดา
+    void eat() {
+        System.out.println(name + " กำลังกินอาหาร");
+    }
+    // เมธอดแบบแอ็บสแตร็ก
+    abstract void sound(); // ไม่มีการกำหนดพฤติกรรม
+}
+// คลาสลูกต้อง override เมธอด sound()
+class Dog extends Animal {
+    void sound() {
+        System.out.println("เห่า: โฮ่ง โฮ่ง");
+    }
+}
+class Cat extends Animal {
+    void sound() {
+        System.out.println("ร้อง: เหมียว เหมียว");
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Animal dog = new Dog();
+        dog.name = "เจ้าตูบ";
+        dog.eat();
+        dog.sound();
+    }
+}
+อธิบาย:
+abstract class Animal → เป็นคลาสต้นแบบที่กำหนดโครงสร้างแต่ไม่สามารถสร้างออบเจ็กต์ได้
+abstract void sound() → เป็นเมธอดที่คลาสลูกทุกตัวต้องเขียนพฤติกรรมเอง (Override)
+การใช้ Abstract ช่วยลดการซ้ำซ้อนของโค้ด เช่น คลาสลูกหลายตัวใช้เมธอด eat() เหมือนกัน แต่มีเสียงต่างกัน</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สมาชิกและเมธอดแบบสถิติ
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ใช้ร่วมกันได้โดยไม่ต้องสร้างออบเจ็กต์
+ตัวอย่าง
+class MathTool {
+   static int add(int a,int b){ return a+b; }
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">โอเวอร์โหลดคอนสตรัคเตอร์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Student(){ name="Unknown"; }
+Student(String n){ name=n; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">โอเวอร์โหลด
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+เมธอดชื่อเดียวแต่พารามิเตอร์ต่างกัน
+void show(){}
+void show(String name){}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">คอนสตรัคเตอร์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ใช้กำหนดค่าเริ่มต้นเมื่อสร้างออบเจ็กต์
+Student(String n, int a){ name = n; age = a; }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การทำลายออบเจ็กต์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>เกิดขึ้นเมื่อออบเจ็กต์ไม่ถูกใช้งาน Java จะลบโดย Garbage Collector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การประกาศค่าตัวแปรของออบเจ็กต์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ใช้เครื่องหมาย . เข้าถึง
+s1.name = "Aom";</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">การส่งข้อความระหว่างออบเจ็กต์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+คือการที่ออบเจ็กต์หนึ่งเรียกเมธอดของอีกออบเจ็กต์หนึ่ง
+Teacher t = new Teacher();
+Student s = new Student();
+t.grade(s);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">อินสแตนซ์ของคลาส
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>การสร้างออบเจ็กต์จากคลาสโดยใช้ new
+Student s1 = new Student();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">โครงสร้างของคลาส
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ตัวอย่าง:
+class Student {
+    String name;
+    int age;
+    void showInfo() {
+        System.out.println(name + " อายุ " + age);
+    }
+}
+Attribute เก็บข้อมูล
+Method เป็นพฤติกรรม</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สถานะของออบเจ็กต์
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>คือค่าปัจจุบันของแอตทริบิวต์ในออบเจ็กต์ เช่น Student.name = "Mai"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Polymorphism คืออะไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Polymorphism แปลว่า “การมีหลายรูปแบบ” หมายถึง ความสามารถของออบเจ็กต์ในการทำงานแตกต่างกันตามชนิดจริงของออบเจ็กต์นั้น แม้จะเรียกผ่านตัวแปรประเภทเดียวกัน
+ช่วยให้โปรแกรมยืดหยุ่นและรองรับการขยายในอนาคตได้ง่าย</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ตัวอย่างโค้ด
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class Shape {
+    void draw() {
+        System.out.println("วาดรูปร่างทั่วไป");
+    }
+}
+class Circle extends Shape {
+    void draw() {
+        System.out.println("วาดวงกลม");
+    }
+}
+class Rectangle extends Shape {
+    void draw() {
+        System.out.println("วาดสี่เหลี่ยมผืนผ้า");
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Shape s1 = new Circle();     // รูปแบบที่ 1
+        Shape s2 = new Rectangle();  // รูปแบบที่ 2
+        s1.draw(); // เรียกเมธอดของ Circle
+        s2.draw(); // เรียกเมธอดของ Rectangle
+    }
+}
+อธิบาย:
+ตัวแปร Shape สามารถเก็บออบเจ็กต์ได้หลายชนิด (Circle, Rectangle)
+เมธอด draw() ถูก Override ให้ทำงานต่างกันตามออบเจ็กต์จริง
+เป็นตัวอย่างของ Runtime Polymorphism (เกิดขณะรันโปรแกรม)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ภาษาเชิงวัตถุคืออะไร
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ภาษาเชิงวัตถุ (Object-Oriented Language) คือภาษาโปรแกรมที่สนับสนุนแนวคิด OOP โดยตรง
+เช่น Java, C++, C#, Python, Kotlin, Swift เป็นต้น
+โดยแต่ละภาษามีเครื่องมือ (IDE – Integrated Development Environment) ช่วยให้การเขียนโค้ดสะดวกขึ้น เช่น
+ภาษา	เครื่องมือยอดนิยม	คุณสมบัติเด่น
+Java	Eclipse, IntelliJ, NetBeans	สร้างคลาส/ออบเจ็กต์ได้อัตโนมัติ
+C#	Visual Studio	พัฒนา GUI และระบบ Windows
+Python	PyCharm, VS Code	สนับสนุน OOP แม้ไม่เข้มงวดเรื่องประเภทข้อมูล
+C++	Code::Blocks, Dev-C++	ควบคุมหน่วยความจำระดับต่ำได้
+Swift / Kotlin	Xcode / Android Studio	พัฒนาแอปบนมือถือได้ง่าย</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Garbage Collection คืออะไร และทำงานอย่างไรในภาษา Java?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Garbage Collection (GC) คือกลไกในภาษา Java ที่ช่วยจัดการหน่วยความจำอัตโนมัติ
+โดยจะตรวจหา “ออบเจ็กต์ที่ไม่ได้ถูกอ้างอิงแล้ว” และคืนหน่วยความจำนั้นให้ระบบ
+ช่วยป้องกันปัญหา Memory Leak (หน่วยความจำรั่ว)
+ตัวอย่าง (Java):
+class Example {
+    int id;
+    Example(int id){ this.id = id; }
+    protected void finalize() {
+        System.out.println("Object " + id + " ถูกทำลาย");
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Example e1 = new Example(1);
+        e1 = null; // ตัดการอ้างอิง
+        System.gc(); // ขอให้ GC ทำงาน
+    }
+}
+อธิบาย:
+เมื่อ e1 = null; → ออบเจ็กต์ไม่ได้ถูกอ้างอิงอีก
+System.gc() เรียกให้ GC ตรวจและลบออบเจ็กต์ที่ไม่ใช้งาน
+finalize() ถูกเรียกก่อนลบออกจากหน่วยความจำ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ในภาษาเชิงวัตถุ เช่น Java การสร้างคลาสและออบเจ็กต์ทำอย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>คลาสเป็นแม่แบบของออบเจ็กต์ ส่วนออบเจ็กต์คือสิ่งที่ถูกสร้างจากคลาสสามารถประกาศและใช้งานได้ดังนี้
+ตัวอย่าง (Java)
+class Student {
+    String name;
+    int age;
+    Student(String n, int a) {
+        name = n;
+        age = a;
+    }
+    void showInfo() {
+        System.out.println("ชื่อ: " + name + " อายุ: " + age);
+    }
+}
+public class Main {
+    public static void main(String[] args) {
+        Student s1 = new Student("มาย", 20);
+        s1.showInfo();
+    }
+}
+อธิบาย:
+class Student → กำหนดคุณสมบัติ (name, age) และพฤติกรรม (showInfo)
+new Student("มาย", 20) → สร้างออบเจ็กต์ (Instance) จากคลาส
+s1.showInfo() → เรียกใช้เมธอดของออบเจ็กต์</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Visual Programming คืออะไร และเกี่ยวข้องกับ OOP อย่างไร?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Visual Programming คือการพัฒนาโปรแกรมโดยใช้เครื่องมือแบบ “ลากวาง (Drag &amp; Drop)” แทนการพิมพ์โค้ดทั้งหมด
+มักใช้สร้าง GUI (Graphical User Interface) เช่น ปุ่ม, ช่องกรอกข้อมูล, ตาราง, และข้อความ
+โดยแนวคิด OOP จะถูกนำมาใช้กับวัตถุแต่ละส่วนของหน้าจอ (เช่น ปุ่มเป็นออบเจ็กต์, ฟอร์มเป็นคลาส)
+ตัวอย่าง (Java Swing)
+import javax.swing.*;
+import java.awt.event.*;
+public class MyWindow {
+    public static void main(String[] args) {
+        JFrame frame = new JFrame("Example OOP GUI");
+        JButton btn = new JButton("กดฉันสิ!");
+        btn.addActionListener(new ActionListener() {
+            public void actionPerformed(ActionEvent e) {
+                System.out.println("สวัสดีจากปุ่ม!");
+            }
+        });
+        frame.add(btn);
+        frame.setSize(200,100);
+        frame.setVisible(true);
+    }
+}
+อธิบาย:
+JFrame คือคลาสที่แทนหน้าต่าง
+JButton คือคลาสของปุ่ม
+ทุกองค์ประกอบเป็นออบเจ็กต์ในแนวคิด OOP
+เมื่อคลิกปุ่ม จะเกิด Event → เรียกเมธอดในออบเจ็กต์ที่กำหนด</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">เมื่อโปรแกรมเกิดข้อผิดพลาดจะเกิดอะไรขึ้น?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ถ้าโปรแกรมไม่จัดการข้อผิดพลาด (Exception) ระบบจะหยุดทำงานทันที
+แต่ถ้ามีการ “ดักจับข้อผิดพลาด” โปรแกรมจะยังคงทำงานต่อได้
+ประเภทของข้อผิดพลาด (Error Types):
+Syntax Error – พิมพ์คำสั่งผิด เช่น ลืม ;
+Logic Error – คำนวณผิด, เงื่อนไขผิด
+Runtime Error (Exception) – ข้อผิดพลาดขณะรัน เช่น หารด้วยศูนย์</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ตัวอย่างข้อผิดพลาด:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+int x = 10;
+int y = 0;
+System.out.println(x / y);
+ผลลัพธ์:
+Exception in thread "main" java.lang.ArithmeticException: / by zero
+อธิบาย:
+เมื่อโปรแกรมพยายามหารด้วยศูนย์ → เกิด Exception ประเภท ArithmeticException</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>วิธีการดักจับข้อผิดพลาด (try-catch)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ตัวอย่างโค้ด (Java):
+try {
+   int result = 10 / 0;
+   System.out.println("ผลลัพธ์: " + result);
+} catch (ArithmeticException e) {
+   System.out.println("ข้อผิดพลาด: หารด้วยศูนย์ไม่ได้");
+}
+อธิบาย:
+try { ... } → ส่วนที่อาจเกิดข้อผิดพลาด
+catch(Exception e) → ส่วนที่จัดการเมื่อเกิดข้อผิดพลาด
+หากไม่มีข้อผิดพลาด จะข้าม catch ไป</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">เมื่อคลาสลูก Override เมธอดที่มี Exception จะเกิดอะไรขึ้น?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>คลาสลูกสามารถขว้าง (throw) Exception ที่ “เล็กกว่าหรือเท่ากับ” คลาสแม่เท่านั้น เพื่อคงความเข้ากันได้
+ตัวอย่าง:
+class Parent {
+    void read() throws IOException {
+        throw new IOException("ไฟล์หาย");
+    }
+}
+class Child extends Parent {
+    @Override
+    void read() throws FileNotFoundException {
+        throw new FileNotFoundException("ไม่พบไฟล์");
+    }
+}
+อธิบาย:
+FileNotFoundException เป็นลูกของ IOException → จึงอนุญาตให้ Override ได้</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>การเผยแพร่ข้อผิดพลาด</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ตัวอย่าง:
+void divide() throws ArithmeticException {
+    int a = 10 / 0;
+}
+public static void main(String[] args) {
+    try {
+        new Main().divide();
+    } catch (ArithmeticException e) {
+        System.out.println("จัดการข้อผิดพลาดจาก main");
+    }
+}
+อธิบาย:
+ใช้ throws เพื่อส่งต่อ Exception ให้เมธอดอื่นจัดการ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">เราสามารถสร้าง Exception ของเราเองได้หรือไม่?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ได้ โดยสร้างคลาสใหม่ที่สืบทอดจาก Exception
+ตัวอย่าง:
+class AgeException extends Exception {
+    AgeException(String msg){ super(msg); }
+}
+public class Main {
+    public static void main(String[] args) {
+        try {
+            checkAge(15);
+        } catch (AgeException e) {
+            System.out.println(e.getMessage());
+        }
+    }
+    static void checkAge(int age) throws AgeException {
+        if(age &lt; 18)
+            throw new AgeException("อายุน้อยกว่า 18 ปี ห้ามสมัคร");
+    }
+}
+อธิบาย:
+class AgeException → กำหนด Exception เอง
+throw → ขว้างข้อผิดพลาด
+throws → ประกาศว่าจะมีข้อผิดพลาดชนิดใด</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">สรุปแนวคิดการจัดการข้อผิดพลาด
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>คีย์เวิร์ด	หน้าที่
+try	ครอบส่วนที่อาจเกิดข้อผิดพลาด
+catch	ดักและจัดการเมื่อเกิดข้อผิดพลาด
+finally	ทำงานทุกครั้ง ไม่ว่ามีหรือไม่มีข้อผิดพลาด
+throw	ขว้างข้อผิดพลาด
+throws	ประกาศข้อผิดพลาดที่อาจเกิดขึ้น</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -320,7 +2031,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -336,7 +2047,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -652,135 +2363,365 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD881969-260A-4732-95B4-91BC9C30E8E1}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="153.109375" customWidth="1"/>
+    <col min="1" max="1" width="153.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="49" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="50" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="57" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="58" spans="1:1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="59" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="60" spans="1:1" ht="390" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="61" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="62" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="63" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="64" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="65" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
